--- a/biology/Botanique/Van_Huyssum/Van_Huyssum.xlsx
+++ b/biology/Botanique/Van_Huyssum/Van_Huyssum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Van Huyssum' est un cultivar de rose ancienne obtenu avant 1837 par Louis Parmentier[2]. Elle est baptisée en l'honneur du peintre de fleurs Jan van Huysum.
+'Van Huyssum' est un cultivar de rose ancienne obtenu avant 1837 par Louis Parmentier. Elle est baptisée en l'honneur du peintre de fleurs Jan van Huysum.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet hybride de rose gallique[3] présente des fleurs doubles rose franc (17-25 pétales) à l'aspect chiffonné. Leur cœur est serré. Elles sont parfumées. La floraison, abondante, n'est pas remontante[4]. 
-Son buisson est résistant et vigoureux, drageonnant s'il est franc de pied. Il peut atteindre de 120 cm à 150 cm[5].
-Le feuillage est mat et sain[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet hybride de rose gallique présente des fleurs doubles rose franc (17-25 pétales) à l'aspect chiffonné. Leur cœur est serré. Elles sont parfumées. La floraison, abondante, n'est pas remontante. 
+Son buisson est résistant et vigoureux, drageonnant s'il est franc de pied. Il peut atteindre de 120 cm à 150 cm.
+Le feuillage est mat et sain.
 Sa zone de rusticité est de 6b à 9b ; il supporte donc les hivers froids.
 Il s'agit d'une rose peu présente dans les catalogues, mais toujours très appréciée par les amateurs de roses anciennes.
 </t>
